--- a/information.xlsx
+++ b/information.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Проекты\ЧатБот\pythonProject3\.venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\GuestCardkld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E1A53-FCE5-44F3-ADC9-A10C900FAF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDCE0E2-B640-49AA-B46D-0EA366C4EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{73C61E84-42E1-4414-8379-0463B23263A1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{73C61E84-42E1-4414-8379-0463B23263A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$B$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="179">
   <si>
     <t>Name</t>
   </si>
@@ -84,35 +87,796 @@
     <t>Экскурсии</t>
   </si>
   <si>
-    <t>Категории</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>EEEEEE</t>
-  </si>
-  <si>
     <t>Магазин</t>
+  </si>
+  <si>
+    <t>ТУРИСТИЧЕСКАЯ ФИРМА «ЮНОНА»</t>
+  </si>
+  <si>
+    <t>г. Зеленоградск, ул. Курортный проспект, 21,</t>
+  </si>
+  <si>
+    <t>3 5 8</t>
+  </si>
+  <si>
+    <t>ФОРТ №1 "ШТАЙН"</t>
+  </si>
+  <si>
+    <t>Пос. Большое Исаково, ориентир — Бауцентр на Московском проспекте, 1-й съезд,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 (4012) 30-70-02; +7 (40150) 3-37-60 unona@kldtur.ru https://kldtur.ru/</t>
+  </si>
+  <si>
+    <r>
+      <t>+7 (4012) 27-01-26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://fort1stein.ru/</t>
+    </r>
+  </si>
+  <si>
+    <t>ТУРИСТИЧЕСКАЯ ФИРМА «КОРОЛЕВСКИЙ ЗАМОК»</t>
+  </si>
+  <si>
+    <t>Ленинский пр. 81, гостиница «КАЛИНИНГРАД», 1-й этаж, холл,</t>
+  </si>
+  <si>
+    <t>на автобусно-пешеходные экскурсии</t>
+  </si>
+  <si>
+    <t>на экскурсионное обслуживание по г. Калининграду и области</t>
+  </si>
+  <si>
+    <t>+7 (4012) 35-07-00; +7 (4012) 35-07-82 kaliningradinfo@mail.ru HTTPS://KALININGRADINFO.RU/</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>г. Калининград, ул. Октябрьская, 8, головной офис - ул. Октябрьская , д. 57,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 30-70-02; +7 (4012) 30-70-03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>unona@kldtur.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>ТУРИСТИЧЕСКАЯ ФИРМА «ПЛАНЕТА»</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 33, строение 1,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (40153) 2-00-60 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>planeta39@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на экскурсионное обслуживание на территории Калининградской области владельцу "Карты Гостя" в составе организованной туристической группы</t>
+  </si>
+  <si>
+    <t>ТУРИСТИЧЕСКАЯ ФИРМА "ЦВЕТ ПРОГУЛКИ"</t>
+  </si>
+  <si>
+    <t>Проспект Мира, д. 108</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (909) 777-78-25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">kcity@tsvet-tur.ru </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://visit-kaliningrad.ru/guestcard/turisticheskaya-firma-tsvet-tur/cvet-progulki.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на все меню экскурсий</t>
+  </si>
+  <si>
+    <t>ФОРТ №11 "ДЁНХОФ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетиков, 12 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 390461 / 390699 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>info@fortdonhoff.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>ЦЕНТР ОТДЫХА "АНГЕЛ"</t>
+  </si>
+  <si>
+    <t>92 км. Гусевского шоссе, Черняховский район, Калининградской области,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 33-65-43 (рецепция), +7 (921) 853 30 99, +7 (921) 851 79 58 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>angelkld@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на аренду беседок, гостиничных номеров, банкетных залов</t>
+  </si>
+  <si>
+    <t>1 3 5</t>
+  </si>
+  <si>
+    <t>ДОМ-МУЗЕЙ ГЕРМАНА БРАХЕРТА</t>
+  </si>
+  <si>
+    <t>ул. Токарева, 7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (40153) 2 11 66 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>brachert@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>КАЛИНИНГРАДСКИЙ ОБЛАСТНОЙ МУЗЕЙ ИЗОБРАЗИТЕЛЬНЫХ ИСКУССТВ</t>
+  </si>
+  <si>
+    <t>Ленинский проспект, д. 83,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 46-71-43 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>secretariat@kaliningradartmuseum.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на входной билет, путеводитель по экспозиции музея - бесплатно</t>
+  </si>
+  <si>
+    <t>на временные выставки музея (из предложенных на кассе) при покупке единого билета на постоянные выставки</t>
+  </si>
+  <si>
+    <t>1 5 8</t>
+  </si>
+  <si>
+    <t>САЛОН "AMBER SEA"</t>
+  </si>
+  <si>
+    <t>ул. Дачная, 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 (800) 550-26-34 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>info@amber-sea.com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">на ювелирные изделия и бижутерию из янтаря </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ПИВОВАРНЯ PONARTH (ПОНАРТ)</t>
+  </si>
+  <si>
+    <t>Киевский переулок, 1</t>
+  </si>
+  <si>
+    <t>+7 (911) 474-60-13; +7 (981) 469-43-63</t>
+  </si>
+  <si>
+    <t>со взрослого на ознакомительную экскурсию с дегустацией на Пивоварню «Понарт» в сопровождении гида и пивовара</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>КАФЕ-ЛАВКА "ХОМЛИНЫ"</t>
+  </si>
+  <si>
+    <t>ул. Степана Разина, 24</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 90‒66‒62 - кафе; +7 (4012) 90‒55‒33 - лавка; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>info@homlins.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Кафе - ежедневно с 09:00 до 20:00; лавка - пн-вс 10:00-19:00</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>МАГАЗИН ОДЕЖДЫ "MOLINIALIFE" (МОЛИНИЯ ЛАЙФ)</t>
+  </si>
+  <si>
+    <t>ТРЦ «Балтия Молл», магазин Molinialife, Гурьевский район, Приморское кольцо 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (909) 786-12-68 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>molinia.ru@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на женскую, мужскую одежду изо льна</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>ГАСТРОЛАВКА "БУРРАТА"</t>
+  </si>
+  <si>
+    <t>ул. ​Карла Маркса, 16​ (цокольный этаж)</t>
+  </si>
+  <si>
+    <t>+7 (911) 482-14-40</t>
+  </si>
+  <si>
+    <t>на покупку продукции</t>
+  </si>
+  <si>
+    <t>МАГАЗИН ЯНТАРНОЙ КОСМЕТИКИ "AMBERICA" (АМБЕРИКА)</t>
+  </si>
+  <si>
+    <t>Курортный проспект, 22; Национальный парк "Куршская коса" (37,3 км)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (963) 291‑91‑65 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>manager@foksis.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на косметическую продукцию в магазинах "Амберика": - г. Зеленоградск - Куршская коса "Танцующий лес"</t>
+  </si>
+  <si>
+    <t>7 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Театральная, 30 (ТРЦ "Европа", 1 этаж); остров Канта (напротив кафе "Булочки Канта"); Площадь Победы, 10 (ТРЦ "Кловер"); Аэропорт "Храброво" (1 и 2 этаж) </t>
+  </si>
+  <si>
+    <t>только в магазинах Остров Канта, ТРЦ "Европа", Аэропорт, ТРЦ "Кловер"</t>
+  </si>
+  <si>
+    <t>СТАРЫЙ МАЯК В ПОС. ЗАЛИВИНО НА БЕРЕГУ КУРШСКОГО ЗАЛИВА</t>
+  </si>
+  <si>
+    <t>пос. Заливино, ул. Причальная</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 53-17-44 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>museum@world-ocean.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на объекты музея с самостоятельным осмотром только владельцу карты гостя: Маяк в пос. Заливино.</t>
+  </si>
+  <si>
+    <t>КАФЕ "ТРДЕЛЬНИК"</t>
+  </si>
+  <si>
+    <t>Проспект Мира, 1 (напротив КГТУ)</t>
+  </si>
+  <si>
+    <t>+7 (906) 548-69-60</t>
+  </si>
+  <si>
+    <t>на все меню в заведении</t>
+  </si>
+  <si>
+    <t>МУЗЕЙ «ЛЕГЕНДЫ СТАРОГО ГОРОДА»</t>
+  </si>
+  <si>
+    <t>Астрономический бастион, Гвардейский проспект, 22</t>
+  </si>
+  <si>
+    <t>+7 (911) 492-63-38; +7 (911) 454-34-22; legendigoroda39@mail.ru</t>
+  </si>
+  <si>
+    <t>КАФЕ "BRAVO ITALIA" (БРАВО ИТАЛИЯ)</t>
+  </si>
+  <si>
+    <t>Правая набережная, 9к2</t>
+  </si>
+  <si>
+    <t>+7 (4012) 376-959</t>
+  </si>
+  <si>
+    <t>на меню кафе</t>
+  </si>
+  <si>
+    <t>ЯНТАРНАЯ И НАТУРАЛЬНАЯ КОСМЕТИКА "SPRING"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (962) 258-40-40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>office@springeco.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на янтарную косметику марки "Spring"</t>
+  </si>
+  <si>
+    <t>Советский проспект, 8</t>
+  </si>
+  <si>
+    <t>ПАБ-РЕСТОРАН "ДЖЕНТЛМЕНЫ"</t>
+  </si>
+  <si>
+    <t>ул. Октябрьская, 12 (Рыбная Деревня)</t>
+  </si>
+  <si>
+    <t>+7 (4012) 55-55-23</t>
+  </si>
+  <si>
+    <t>на меню</t>
+  </si>
+  <si>
+    <t>ТУРИСТИЧЕСКАЯ ФИРМА "УНИВЕРСАЛ-ТУР"</t>
+  </si>
+  <si>
+    <t>ул. Ленина д. 33 А</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 97-16-16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>info@uni-tour.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>+7 (4012) 97-16-16 info@uni-tour.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на туристические поездки (по области и за рубеж) </t>
+  </si>
+  <si>
+    <t>МОРСКОЙ ВЫСТАВОЧНЫЙ ЦЕНТР МУЗЕЯ МИРОВОГО ОКЕАНА</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 11 (1 этаж Театра эстрады «Янтарь-Холл»)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (40153) 2-40-70 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>museum@world-ocean.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на объекты музея с самостоятельным осмотром только владельцу карты гостя: Морской выставочный центр в г. Светлогорске</t>
+  </si>
+  <si>
+    <t>РЕСТОРАН - ПИВОВАРНЯ "ХМЕЛЬ"</t>
+  </si>
+  <si>
+    <t>Площадь Победы, 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 301-010 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>hmel-info@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на меню ресторана</t>
+  </si>
+  <si>
+    <t>АВТОПРОКАТ "PAVLOV"</t>
+  </si>
+  <si>
+    <t>ул. Юрия Гагарина, 116</t>
+  </si>
+  <si>
+    <t>+7 (991) 777-19-15</t>
+  </si>
+  <si>
+    <t>на аренду автомобилей посуточно</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>АРЕНДА АПАРТАМЕНТОВ PAVLOV</t>
+  </si>
+  <si>
+    <t>У озера; у вокзала; у парка; у академии</t>
+  </si>
+  <si>
+    <t>+7 (929) 167 50 50</t>
+  </si>
+  <si>
+    <t>на аренду студий посуточно</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t>ПЕРВЫЙ РЫБНЫЙ РЕСТОРАН "СОЛНЕЧНЫЙ КАМЕНЬ"</t>
+  </si>
+  <si>
+    <t>пл. Маршала Василевского, 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 539-106; +7 (4012) 539-104; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>sun-stone-39@yandex.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на услуги питания</t>
+  </si>
+  <si>
+    <t>БРЕНД «AMBERIAS JEWELRY»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Горького, 2 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (911) 458-86-87 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>amberiasjewelry@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>МАГАЗИН СУВЕНИРОВ "РЫЖАЯ ЗАРЯ"</t>
+  </si>
+  <si>
+    <t>Ленинский пр-т, 20; Аэропорт "Храброво"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (902) 419-03-77 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>kaliningrad_tshirt@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>РЕСТОРАН "KAISER WURST" (КАЙЗЕРВУРСТ)</t>
+  </si>
+  <si>
+    <t>ул. Театральная, д. 30, ТРЦ "Европа" атриум Берлин, 3-ий этаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на меню ресторана </t>
+  </si>
+  <si>
+    <t>ТЕРМАЛЬНЫЙ КОМПЛЕКС "ПЛЯЖ ПОСЕЙДОН"</t>
+  </si>
+  <si>
+    <t>Верхнее озеро, ул. Пролетарская набережная (ориентир – отель «Mercure»)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на услуги СПА-центра </t>
+  </si>
+  <si>
+    <t>ГРЦ «ПАРАDOX»</t>
+  </si>
+  <si>
+    <t>ул. Саратовская, 2а</t>
+  </si>
+  <si>
+    <t>+7 (4012) 38-87-83</t>
+  </si>
+  <si>
+    <t>+7 (4012) 52-61-26</t>
+  </si>
+  <si>
+    <t>Ресепшен ГРЦ «ПАРАDOX»: +7 (40150) 3-10-53; Заказ дорожек в боулинге: +7 (40150) 3-10-53; Запись на игру в «КВЕСТ ВЕСТ»: +7 (952) 058-35-80; Музей Черепов и Скелетов «МЧС»: +7 (40150) 3-10-53; Музей «МУРАРИУМ»: +7 (40150) 3-10-20; Музей «Домик Ангелов»: +7 (902) 416-09-45; Музей Филинов и Сов «ФилоСовия»: +7 (952) 059-11-31; Музей курортной моды: +7 (931) 609-05-05 info@2doks.ru</t>
+  </si>
+  <si>
+    <t>на услуги в комплексе "Парадокс"; музеи: "ФилоСовия", "Мурариум", "Черепов и скелетов", "Домик Ангелов", Музей курортной моды</t>
+  </si>
+  <si>
+    <t>3 5 1</t>
+  </si>
+  <si>
+    <t>МУЗЕЙ МИРОВОГО ОКЕАНА</t>
+  </si>
+  <si>
+    <t>Набережная Петра Великого, д. 1</t>
+  </si>
+  <si>
+    <t>только владельцу карты гостя</t>
+  </si>
+  <si>
+    <t>ПРОКАТ КАТАМАРАНОВ "ПОСЕЙДОН"</t>
+  </si>
+  <si>
+    <t>ул. Пролетарская, 98</t>
+  </si>
+  <si>
+    <t>+7 (952) 051-86-96</t>
+  </si>
+  <si>
+    <t>на прокат катамаранов (только в летний период)</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>КАЛИНИНГРАДСКИЙ ОБЛАСТНОЙ ИСТОРИКО-ХУДОЖЕСТВЕННЫЙ МУЗЕЙ</t>
+  </si>
+  <si>
+    <t>ул. Клиническая, 21</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 994-900; +7 (911) 868-31-76; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>office@koihm.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>1-ый офис - Советский пр-кт, 36Б; 2-ой офис - ул. Октябрьская, д. 29А</t>
+  </si>
+  <si>
+    <t>Ленинский пр-т, д. 29</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (800) 550-26-34; +7 (4012) 76-36-83; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>info@amber-sea.com</t>
+    </r>
+  </si>
+  <si>
+    <t>на ювелирные изделия и бижутерию из янтаря</t>
+  </si>
+  <si>
+    <t>МУЗЕЙ ЯНТАРЯ</t>
+  </si>
+  <si>
+    <t>Площадь Маршала Василевского, д.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+7 (4012) 46-68-88; +7 (4012) 53-82-19; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>info@ambermuseum.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>на посещение музея</t>
+  </si>
+  <si>
+    <t>1 5 7 8</t>
+  </si>
+  <si>
+    <t>Променад, г. Зеленоградск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +893,97 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -155,19 +1000,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC9C9C9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC9C9C9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC9C9C9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC9C9C9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,17 +1174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D476BE94-9D25-4816-8B1F-A301E1961189}" name="Таблица2" displayName="Таблица2" ref="H3:I12" totalsRowShown="0">
-  <autoFilter ref="H3:I12" xr:uid="{D476BE94-9D25-4816-8B1F-A301E1961189}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{52283C2E-0384-4E24-8BA6-C834E2DCD071}" name="Название"/>
-    <tableColumn id="2" xr3:uid="{EDC29EF9-452B-4BD4-A456-F4E77C059F3C}" name="Номер"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,156 +1473,916 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5C296C-FB53-429F-A67C-745FF3607FCD}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+      <c r="H10" s="22">
         <v>9</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
+      <c r="A11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
+      <c r="A12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:I2"/>
-  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="tel:+7401230700274015033760" xr:uid="{EFB8D432-F22D-409B-9332-51CC36634F26}"/>
+    <hyperlink ref="C34" r:id="rId2" display="tel:+74012388783" xr:uid="{2D4C3E6E-FF7F-42FE-B404-C25A989ACCF1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>